--- a/Plan2018.xlsx
+++ b/Plan2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="360" windowWidth="14805" windowHeight="7755" tabRatio="663" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="360" windowWidth="14805" windowHeight="7755" tabRatio="663" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="14" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="工作表1" sheetId="51" r:id="rId14"/>
     <sheet name="工作表2" sheetId="53" r:id="rId15"/>
     <sheet name="工作表3" sheetId="54" r:id="rId16"/>
-    <sheet name="工作表4" sheetId="55" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">emotion2018!$A$1:$D$290</definedName>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1393">
   <si>
     <t>今阿日上精油的課,會駛嗄依見面</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8247,267 +8246,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>592u-世貿  -9705040</t>
-  </si>
-  <si>
-    <t>5920-元富  -9700334</t>
-  </si>
-  <si>
-    <t>5920-元富  -340625</t>
-  </si>
-  <si>
-    <t>592r-城東  -5090671</t>
-  </si>
-  <si>
-    <t>592u-世貿  -9705079</t>
-  </si>
-  <si>
-    <t>5920-元富  -9703072</t>
-  </si>
-  <si>
-    <t>5920-元富  -9701388</t>
-  </si>
-  <si>
-    <t>592H-信義  -9700447</t>
-  </si>
-  <si>
-    <t>5920-元富  -9701375</t>
-  </si>
-  <si>
-    <t>592d-延平  -9700453</t>
-  </si>
-  <si>
-    <t>592r-城東  -9700705</t>
-  </si>
-  <si>
-    <t>592H-信義  -9700450</t>
-  </si>
-  <si>
-    <t>592r-城東  -9700718</t>
-  </si>
-  <si>
-    <t>592H-信義  -9700476</t>
-  </si>
-  <si>
-    <t>592r-城東  -9700721</t>
-  </si>
-  <si>
-    <t>592H-信義  -9700502</t>
-  </si>
-  <si>
-    <t>592u-世貿  -9705053</t>
-  </si>
-  <si>
-    <t>5920-元富  -9703085</t>
-  </si>
-  <si>
-    <t>5920-元富  -9700648</t>
-  </si>
-  <si>
-    <t>592H-信義  -9701048</t>
-  </si>
-  <si>
-    <t>5920-元富  -9700745</t>
-  </si>
-  <si>
-    <t>592H-信義  -9700311</t>
-  </si>
-  <si>
-    <t>5920-元富  -305819</t>
-  </si>
-  <si>
-    <t>5920-元富  -417480</t>
-  </si>
-  <si>
-    <t>5920-元富  -9701029</t>
-  </si>
-  <si>
-    <t>592I-嘉義  -9700200</t>
-  </si>
-  <si>
-    <t>5922-新店  -9700154</t>
-  </si>
-  <si>
-    <t>592H-信義  -9700340</t>
-  </si>
-  <si>
-    <t>592u-世貿  -9705066</t>
-  </si>
-  <si>
-    <t>5920-元富  -9700826</t>
-  </si>
-  <si>
-    <t>5920-元富  -9700855</t>
-  </si>
-  <si>
-    <t>592H-信義  -9701080</t>
-  </si>
-  <si>
-    <t>5920-元富  -9701236</t>
-  </si>
-  <si>
-    <t>592n-西松  -9713055</t>
-  </si>
-  <si>
-    <t>5920-元富  -373579</t>
-  </si>
-  <si>
-    <t>5920-元富  -423416</t>
-  </si>
-  <si>
-    <t>592d-延平  -9700026</t>
-  </si>
-  <si>
-    <t>5920-元富  -9700952</t>
-  </si>
-  <si>
-    <t>592u-世貿  -9705024</t>
-  </si>
-  <si>
-    <t>5920-元富  -9703043</t>
-  </si>
-  <si>
-    <t>592I-嘉義  -9700255</t>
-  </si>
-  <si>
-    <t>592H-信義  -9700308</t>
-  </si>
-  <si>
-    <t>592d-延平  -9700136</t>
-  </si>
-  <si>
-    <t>5920-元富  -9700606</t>
-  </si>
-  <si>
-    <t>5920-元富  -9700392</t>
-  </si>
-  <si>
-    <t>592H-信義  -9700285</t>
-  </si>
-  <si>
-    <t>592I-嘉義  -9700187</t>
-  </si>
-  <si>
-    <t>592u-世貿  -9705011</t>
-  </si>
-  <si>
-    <t>5920-元富  -9700570</t>
-  </si>
-  <si>
-    <t>5920-元富  -339364</t>
-  </si>
-  <si>
-    <t>592r-城東  -5121867</t>
-  </si>
-  <si>
-    <t>5920-元富  -9700619</t>
-  </si>
-  <si>
-    <t>592d-延平  -9701122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F12001002 </t>
-  </si>
-  <si>
-    <t>5920-元富  -9912601</t>
-  </si>
-  <si>
-    <t>5920-元富  -9913286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F73902326 </t>
-  </si>
-  <si>
-    <t>5920-元富  -9913040</t>
-  </si>
-  <si>
-    <t>5920-元富  -9911437</t>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份證</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">01032058  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">03336704  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17139204  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17602625  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17603899  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17612497  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18043059  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18494624  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20080023  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20084317  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20097447  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">26321082  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">73990649  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81584335  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81584975  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81588536  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81593432  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81595924  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83863951  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83866508  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">92003102  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">92013967  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">92026219  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">97172648  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">97990696  </t>
-  </si>
-  <si>
-    <t>帳號</t>
+    <t xml:space="preserve">找table ......
+找SP.....
+找欄位....
+不好查
+維護上,會有這樣的需求
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8903,7 +8647,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9259,7 +9003,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -12113,7 +11856,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12180,665 +11923,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1">
-      <c r="A1" s="165" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="83" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B2" s="4">
-        <v>830308</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="83" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B3" s="4">
-        <v>830316</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="83" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B4" s="4">
-        <v>500426</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="83" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B5" s="4">
-        <v>780630</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="83" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B6" s="4">
-        <v>880706</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="83" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B7" s="4">
-        <v>880820</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="83" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B8" s="4">
-        <v>890119</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="83" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B9" s="4">
-        <v>890304</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="83" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B10" s="4">
-        <v>890211</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="83" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B11" s="4">
-        <v>890310</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="83" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B12" s="4">
-        <v>890309</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="83" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B13" s="4">
-        <v>890623</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="83" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B14" s="4">
-        <v>890309</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="83" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B15" s="4">
-        <v>900110</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="83" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B16" s="4">
-        <v>900604</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="83" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B17" s="4">
-        <v>900611</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="83" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B18" s="4">
-        <v>860106</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="83" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B19" s="4">
-        <v>860127</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="83" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B20" s="4">
-        <v>860115</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="83" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B21" s="4">
-        <v>860407</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="83" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B22" s="4">
-        <v>860806</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="83" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B23" s="4">
-        <v>860911</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="83" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B24" s="4">
-        <v>850701</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="83" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1000520</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="83" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B26" s="4">
-        <v>870615</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="83" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B27" s="4">
-        <v>870804</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="83" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B28" s="4">
-        <v>870823</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="83" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B29" s="4">
-        <v>870824</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="83" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B30" s="4">
-        <v>861020</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="83" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B31" s="4">
-        <v>861201</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="83" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B32" s="4">
-        <v>861027</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="83" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B33" s="4">
-        <v>861227</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="83" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B34" s="4">
-        <v>861212</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="83" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B35" s="4">
-        <v>870206</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="83" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B36" s="4">
-        <v>870113</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="83" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B37" s="4">
-        <v>870206</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="83" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B38" s="4">
-        <v>811007</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="83" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B39" s="4">
-        <v>870307</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="83" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B40" s="4">
-        <v>871013</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="83" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B41" s="4">
-        <v>871124</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="83" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B42" s="4">
-        <v>871003</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="83" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B43" s="4">
-        <v>880122</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="83" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B44" s="4">
-        <v>811007</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="83" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B45" s="4">
-        <v>831114</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="83" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B46" s="4">
-        <v>840325</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="83" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B47" s="4">
-        <v>840502</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="83" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B48" s="4">
-        <v>840520</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="83" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B49" s="4">
-        <v>841007</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="83" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B50" s="4">
-        <v>841124</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="83" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B51" s="4">
-        <v>860101</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="83" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B52" s="4">
-        <v>860108</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="83" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B53" s="4">
-        <v>850828</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="83" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B54" s="4">
-        <v>851001</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="83" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B55" s="4">
-        <v>800322</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="83" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B56" s="4">
-        <v>1000211</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="83" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B57" s="4">
-        <v>980804</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="83" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B58" s="4">
-        <v>990730</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -18472,7 +17556,7 @@
   <dimension ref="A1:Q290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -21627,8 +20711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -21752,7 +20836,10 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="99">
+      <c r="B14" s="5" t="s">
+        <v>1392</v>
+      </c>
       <c r="C14" s="64"/>
     </row>
     <row r="19" spans="1:5">
